--- a/powerapp/data/dp_hvcb.xlsx
+++ b/powerapp/data/dp_hvcb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED787F-98F1-974E-A370-40B7E3CBE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61086A6A-90EA-F240-9E06-0C63C0E7391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="8260" windowWidth="19360" windowHeight="26380" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
+    <workbookView xWindow="9380" yWindow="920" windowWidth="19360" windowHeight="26380" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_hvcb_dp" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ls_hvcb_dp!$A$1:$F$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ls_hvcb_dp!$A$1:$F$276</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="292">
   <si>
     <t>feeder_id</t>
   </si>
@@ -900,6 +900,21 @@
   </si>
   <si>
     <t>HLNN</t>
+  </si>
+  <si>
+    <t>mnid_132</t>
+  </si>
+  <si>
+    <t>spwr_132</t>
+  </si>
+  <si>
+    <t>ppsr_132</t>
+  </si>
+  <si>
+    <t>tklg_estl_132</t>
+  </si>
+  <si>
+    <t>ESTL</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1383,6 +1398,9 @@
       <c r="E2" s="8">
         <v>105</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1400,6 +1418,9 @@
       <c r="E3" s="8">
         <v>405</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1417,6 +1438,9 @@
       <c r="E4" s="8">
         <v>505</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1434,6 +1458,9 @@
       <c r="E5" s="9">
         <v>905</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1451,6 +1478,9 @@
       <c r="E6" s="8">
         <v>1005</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1468,6 +1498,9 @@
       <c r="E7" s="9">
         <v>805</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1485,6 +1518,9 @@
       <c r="E8" s="9">
         <v>905</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1502,6 +1538,9 @@
       <c r="E9" s="8" t="s">
         <v>236</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1519,6 +1558,9 @@
       <c r="E10" s="8" t="s">
         <v>237</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1536,6 +1578,9 @@
       <c r="E11" s="8">
         <v>505</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1553,6 +1598,9 @@
       <c r="E12" s="8">
         <v>605</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1570,6 +1618,9 @@
       <c r="E13" s="8" t="s">
         <v>236</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1587,6 +1638,9 @@
       <c r="E14" s="8" t="s">
         <v>237</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1604,6 +1658,9 @@
       <c r="E15" s="8" t="s">
         <v>244</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1621,6 +1678,9 @@
       <c r="E16" s="8" t="s">
         <v>245</v>
       </c>
+      <c r="F16" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1638,6 +1698,9 @@
       <c r="E17" s="8">
         <v>105</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -1655,6 +1718,9 @@
       <c r="E18" s="8">
         <v>205</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1672,6 +1738,9 @@
       <c r="E19" s="8">
         <v>705</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -1689,6 +1758,9 @@
       <c r="E20" s="8">
         <v>905</v>
       </c>
+      <c r="F20" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1706,6 +1778,9 @@
       <c r="E21" s="8" t="s">
         <v>254</v>
       </c>
+      <c r="F21" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1723,6 +1798,9 @@
       <c r="E22" s="8" t="s">
         <v>255</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1740,6 +1818,9 @@
       <c r="E23" s="8">
         <v>505</v>
       </c>
+      <c r="F23" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1757,6 +1838,9 @@
       <c r="E24" s="8">
         <v>605</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1774,6 +1858,9 @@
       <c r="E25" s="8">
         <v>105</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1791,85 +1878,84 @@
       <c r="E26" s="8">
         <v>205</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="7">
+        <v>132</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="7">
+        <v>132</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="C29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="C30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="10">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1880,16 +1966,16 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E31" s="10">
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1900,16 +1986,16 @@
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="10">
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,7 +2003,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>224</v>
@@ -1929,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1937,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>224</v>
@@ -1949,47 +2035,47 @@
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>21</v>
+      <c r="A36" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2000,16 +2086,16 @@
         <v>20</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2020,16 +2106,16 @@
         <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="10">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2043,10 +2129,10 @@
         <v>225</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>128</v>
@@ -2057,19 +2143,19 @@
         <v>21</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="10">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2077,19 +2163,19 @@
         <v>21</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41" s="10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2097,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>225</v>
@@ -2109,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2117,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>225</v>
@@ -2129,47 +2215,47 @@
         <v>11</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E44" s="10">
+        <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
+        <v>11</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2180,16 +2266,16 @@
         <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2200,16 +2286,16 @@
         <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2217,7 +2303,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>225</v>
@@ -2229,7 +2315,7 @@
         <v>31</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2237,7 +2323,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>225</v>
@@ -2249,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2257,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>225</v>
@@ -2269,7 +2355,7 @@
         <v>31</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2277,7 +2363,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>225</v>
@@ -2289,7 +2375,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2297,16 +2383,19 @@
         <v>27</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" s="3">
-        <v>132</v>
+        <v>29</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>269</v>
+      <c r="E52" s="10">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2314,56 +2403,53 @@
         <v>27</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C53" s="3">
-        <v>132</v>
+        <v>29</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>270</v>
+      <c r="E53" s="10">
+        <v>32</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>225</v>
+        <v>268</v>
+      </c>
+      <c r="C54" s="3">
+        <v>132</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="10">
-        <v>31</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>131</v>
+      <c r="E54" s="10" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>225</v>
+        <v>268</v>
+      </c>
+      <c r="C55" s="3">
+        <v>132</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="10">
-        <v>32</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>131</v>
+      <c r="E55" s="10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2371,19 +2457,19 @@
         <v>30</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10">
         <v>31</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="F56" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,19 +2477,19 @@
         <v>30</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E57" s="10">
+        <v>32</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2414,16 +2500,16 @@
         <v>31</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2434,16 +2520,16 @@
         <v>31</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2451,7 +2537,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>225</v>
@@ -2463,7 +2549,7 @@
         <v>31</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,7 +2557,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>225</v>
@@ -2483,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2491,19 +2577,19 @@
         <v>30</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E62" s="10">
+        <v>31</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2511,19 +2597,19 @@
         <v>30</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E63" s="10">
+        <v>32</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2534,16 +2620,16 @@
         <v>33</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2554,16 +2640,16 @@
         <v>33</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2571,19 +2657,19 @@
         <v>30</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="E66" s="10">
+        <v>31</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2591,19 +2677,19 @@
         <v>30</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2614,16 +2700,16 @@
         <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="10">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2631,19 +2717,19 @@
         <v>30</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>9</v>
+      <c r="E69" s="10">
+        <v>31</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2651,59 +2737,59 @@
         <v>30</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>11</v>
+      <c r="E70" s="10">
+        <v>32</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="10">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="10">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2711,109 +2797,109 @@
         <v>39</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73" s="3">
-        <v>132</v>
+        <v>38</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E73" s="10">
+        <v>33</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C74" s="3">
-        <v>132</v>
+        <v>38</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="E74" s="10">
+        <v>34</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>225</v>
+        <v>271</v>
+      </c>
+      <c r="C75" s="3">
+        <v>132</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="10">
-        <v>31</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>225</v>
+        <v>271</v>
+      </c>
+      <c r="C76" s="3">
+        <v>132</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="10">
-        <v>32</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>41</v>
+      <c r="B77" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E77" s="10">
+        <v>31</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>41</v>
+      <c r="B78" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E78" s="10">
+        <v>32</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2824,16 +2910,16 @@
         <v>41</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2844,16 +2930,16 @@
         <v>41</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2861,59 +2947,59 @@
         <v>39</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="3">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E81" s="10">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="3">
-        <v>132</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="11">
-        <v>210</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="10">
+        <v>32</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="11">
-        <v>31</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
+      </c>
+      <c r="C83" s="3">
+        <v>132</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="10">
+        <v>110</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,19 +3007,19 @@
         <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>225</v>
+        <v>42</v>
+      </c>
+      <c r="C84" s="3">
+        <v>132</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E84" s="11">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,7 +3027,7 @@
         <v>39</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>225</v>
@@ -2953,7 +3039,7 @@
         <v>31</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,7 +3047,7 @@
         <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>225</v>
@@ -2973,7 +3059,7 @@
         <v>32</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,19 +3067,19 @@
         <v>39</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E87" s="11">
+        <v>31</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,19 +3087,19 @@
         <v>39</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E88" s="11">
+        <v>32</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3024,16 +3110,16 @@
         <v>45</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="11">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3044,16 +3130,16 @@
         <v>45</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="11">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,19 +3147,19 @@
         <v>39</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E91" s="11">
+        <v>31</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,19 +3167,19 @@
         <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E92" s="11">
+        <v>32</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3104,16 +3190,16 @@
         <v>46</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="11">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3124,16 +3210,16 @@
         <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="11">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,72 +3227,72 @@
         <v>39</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" s="3">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="3"/>
+      <c r="E95" s="11">
+        <v>31</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" s="3">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="3"/>
+      <c r="E96" s="11">
+        <v>32</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>225</v>
+        <v>272</v>
+      </c>
+      <c r="C97" s="3">
+        <v>132</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="11">
-        <v>31</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>225</v>
+        <v>272</v>
+      </c>
+      <c r="C98" s="3">
+        <v>132</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="11">
-        <v>32</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
@@ -3216,16 +3302,16 @@
         <v>47</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E99" s="11">
+        <v>31</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,16 +3322,16 @@
         <v>47</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E100" s="11">
+        <v>32</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,19 +3339,19 @@
         <v>39</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="11">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,19 +3359,19 @@
         <v>39</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="11">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3293,7 +3379,7 @@
         <v>39</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>225</v>
@@ -3305,7 +3391,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3313,7 +3399,7 @@
         <v>39</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>225</v>
@@ -3325,47 +3411,47 @@
         <v>32</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>50</v>
+      <c r="B105" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="10">
+      <c r="D105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="11">
         <v>31</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>50</v>
+      <c r="B106" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="10">
+      <c r="D106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="11">
         <v>32</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>155</v>
+      <c r="F106" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3373,7 +3459,7 @@
         <v>39</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>225</v>
@@ -3385,7 +3471,7 @@
         <v>31</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3393,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>225</v>
@@ -3405,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3413,7 +3499,7 @@
         <v>39</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>225</v>
@@ -3425,7 +3511,7 @@
         <v>31</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3433,7 +3519,7 @@
         <v>39</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>225</v>
@@ -3445,47 +3531,47 @@
         <v>32</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C111" s="3">
-        <v>132</v>
+      <c r="B111" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E111" s="10">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="3">
-        <v>132</v>
+      <c r="B112" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E112" s="10">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,31 +3579,47 @@
         <v>39</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="C113" s="3">
         <v>132</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="D113" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="10">
+        <v>105</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="C114" s="3">
         <v>132</v>
       </c>
-      <c r="E114" s="10"/>
+      <c r="D114" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="10">
+        <v>205</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" s="3">
         <v>132</v>
@@ -3529,7 +3631,7 @@
         <v>39</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" s="3">
         <v>132</v>
@@ -3538,50 +3640,34 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="10">
-        <v>31</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="3">
+        <v>132</v>
+      </c>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="10">
-        <v>32</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="3">
+        <v>132</v>
+      </c>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>225</v>
@@ -3593,7 +3679,7 @@
         <v>31</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3601,7 +3687,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>225</v>
@@ -3613,7 +3699,7 @@
         <v>32</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3707,7 @@
         <v>55</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>225</v>
@@ -3633,7 +3719,7 @@
         <v>31</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3641,7 +3727,7 @@
         <v>55</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>225</v>
@@ -3653,7 +3739,7 @@
         <v>32</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3664,16 +3750,16 @@
         <v>57</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E123" s="10">
+        <v>31</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3684,16 +3770,16 @@
         <v>57</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E124" s="10">
+        <v>32</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,56 +3787,59 @@
         <v>55</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C125" s="3">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>276</v>
+        <v>5</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>224</v>
+        <v>275</v>
+      </c>
+      <c r="C127" s="3">
+        <v>132</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,7 +3847,7 @@
         <v>59</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>224</v>
@@ -3770,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3778,7 +3867,7 @@
         <v>59</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>224</v>
@@ -3790,7 +3879,7 @@
         <v>11</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,53 +3893,53 @@
         <v>224</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="10">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="10">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,30 +3947,40 @@
         <v>62</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133" s="3">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="E133" s="10">
+        <v>31</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" s="3">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E134" s="10">
+        <v>32</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -3894,28 +3993,29 @@
         <v>132</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="E135" s="10"/>
+      <c r="F135" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>225</v>
+        <v>277</v>
+      </c>
+      <c r="C136" s="3">
+        <v>132</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="10">
-        <v>31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E136" s="10"/>
       <c r="F136" s="7" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3923,19 +4023,17 @@
         <v>62</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>225</v>
+        <v>277</v>
+      </c>
+      <c r="C137" s="3">
+        <v>132</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="10">
-        <v>32</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E137" s="10"/>
       <c r="F137" s="7" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3946,16 +4044,16 @@
         <v>63</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E138" s="10">
+        <v>31</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3966,16 +4064,16 @@
         <v>63</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E139" s="10">
+        <v>32</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3983,19 +4081,19 @@
         <v>62</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4003,27 +4101,27 @@
         <v>62</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>225</v>
@@ -4035,15 +4133,15 @@
         <v>31</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>225</v>
@@ -4055,7 +4153,7 @@
         <v>32</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4063,7 +4161,7 @@
         <v>62</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>225</v>
@@ -4075,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4083,7 +4181,7 @@
         <v>62</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>225</v>
@@ -4095,7 +4193,7 @@
         <v>32</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4103,19 +4201,19 @@
         <v>62</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="3">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E146" s="10">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4123,19 +4221,19 @@
         <v>62</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="3">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E147" s="10">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4143,7 +4241,7 @@
         <v>62</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="C148" s="3">
         <v>132</v>
@@ -4151,8 +4249,11 @@
       <c r="D148" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="10" t="s">
-        <v>279</v>
+      <c r="E148" s="10">
+        <v>110</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4160,16 +4261,19 @@
         <v>62</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="C149" s="3">
         <v>132</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>280</v>
+        <v>2</v>
+      </c>
+      <c r="E149" s="10">
+        <v>205</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4177,19 +4281,19 @@
         <v>62</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+      <c r="C150" s="3">
+        <v>132</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="10">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4197,19 +4301,19 @@
         <v>62</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+      <c r="C151" s="3">
+        <v>132</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="10">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4220,16 +4324,16 @@
         <v>69</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E152" s="10">
+        <v>31</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,16 +4344,16 @@
         <v>69</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E153" s="10">
+        <v>32</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,19 +4361,19 @@
         <v>62</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4277,19 +4381,19 @@
         <v>62</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4300,16 +4404,16 @@
         <v>70</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E156" s="10">
+        <v>31</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4320,56 +4424,56 @@
         <v>70</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="10">
+        <v>32</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E159" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="10">
-        <v>31</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="10">
-        <v>32</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4380,16 +4484,16 @@
         <v>71</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E160" s="10">
+        <v>31</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4400,16 +4504,16 @@
         <v>71</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E161" s="10">
+        <v>32</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4417,19 +4521,19 @@
         <v>72</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4437,19 +4541,19 @@
         <v>72</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4463,10 +4567,10 @@
         <v>225</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E164" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>179</v>
@@ -4483,10 +4587,10 @@
         <v>225</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E165" s="10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>179</v>
@@ -4497,19 +4601,19 @@
         <v>72</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E166" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4517,19 +4621,19 @@
         <v>72</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E167" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4540,16 +4644,16 @@
         <v>74</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E168" s="10">
+        <v>31</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4560,16 +4664,16 @@
         <v>74</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E169" s="10">
+        <v>32</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4577,19 +4681,19 @@
         <v>72</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4597,19 +4701,19 @@
         <v>72</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4623,53 +4727,53 @@
         <v>224</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="10">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="10">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -4677,7 +4781,7 @@
         <v>77</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>225</v>
@@ -4689,7 +4793,7 @@
         <v>31</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>225</v>
@@ -4709,7 +4813,7 @@
         <v>32</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4720,16 +4824,16 @@
         <v>78</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E177" s="10">
+        <v>31</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4740,16 +4844,16 @@
         <v>78</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E178" s="10">
+        <v>32</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,70 +4861,70 @@
         <v>77</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C179" s="3">
-        <v>132</v>
+        <v>78</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E179" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C180" s="3">
-        <v>132</v>
+        <v>78</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C181" s="3">
+        <v>132</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" s="10">
-        <v>31</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>225</v>
+        <v>282</v>
+      </c>
+      <c r="C182" s="3">
+        <v>132</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="10">
-        <v>32</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -4830,16 +4934,16 @@
         <v>79</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E183" s="10">
+        <v>31</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4850,16 +4954,16 @@
         <v>79</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E184" s="10">
+        <v>32</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -4867,19 +4971,19 @@
         <v>77</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4887,19 +4991,19 @@
         <v>77</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4907,77 +5011,77 @@
         <v>77</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C187" s="3">
-        <v>132</v>
+        <v>80</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C188" s="3">
-        <v>132</v>
+        <v>80</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>225</v>
+        <v>281</v>
+      </c>
+      <c r="C189" s="3">
+        <v>132</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" s="10">
-        <v>31</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>225</v>
+        <v>281</v>
+      </c>
+      <c r="C190" s="3">
+        <v>132</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="10">
-        <v>32</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>225</v>
@@ -4989,7 +5093,7 @@
         <v>31</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,7 +5101,7 @@
         <v>82</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>225</v>
@@ -5009,15 +5113,15 @@
         <v>32</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>225</v>
@@ -5029,15 +5133,15 @@
         <v>31</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>225</v>
@@ -5049,7 +5153,7 @@
         <v>32</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5060,16 +5164,16 @@
         <v>84</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E195" s="10">
+        <v>31</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,16 +5184,16 @@
         <v>84</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E196" s="10">
+        <v>32</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,19 +5201,19 @@
         <v>85</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,19 +5221,19 @@
         <v>85</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,101 +5241,101 @@
         <v>85</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C199" s="3">
-        <v>132</v>
+        <v>86</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E199" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C200" s="3">
-        <v>132</v>
+        <v>86</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E200" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C201" s="3">
         <v>132</v>
       </c>
+      <c r="D201" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="C202" s="3">
         <v>132</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E202" s="10">
-        <v>205</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" s="10">
-        <v>31</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C203" s="3">
+        <v>132</v>
+      </c>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>225</v>
+        <v>87</v>
+      </c>
+      <c r="C204" s="3">
+        <v>132</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E204" s="10">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5245,7 +5349,7 @@
         <v>225</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E205" s="10">
         <v>31</v>
@@ -5259,19 +5363,19 @@
         <v>88</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E206" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5279,19 +5383,19 @@
         <v>88</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E207" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,7 +5403,7 @@
         <v>88</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>225</v>
@@ -5311,7 +5415,7 @@
         <v>31</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,7 +5423,7 @@
         <v>88</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>225</v>
@@ -5331,15 +5435,15 @@
         <v>32</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>225</v>
@@ -5351,15 +5455,15 @@
         <v>31</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>225</v>
@@ -5371,7 +5475,7 @@
         <v>32</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5382,16 +5486,16 @@
         <v>92</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E212" s="10">
+        <v>31</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5402,16 +5506,16 @@
         <v>92</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E213" s="10">
+        <v>32</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,7 +5523,7 @@
         <v>93</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>224</v>
@@ -5431,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5439,7 +5543,7 @@
         <v>93</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>224</v>
@@ -5451,7 +5555,7 @@
         <v>7</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5459,19 +5563,19 @@
         <v>93</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5479,19 +5583,19 @@
         <v>93</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" s="10">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,16 +5606,16 @@
         <v>95</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E218" s="10">
+        <v>31</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5522,16 +5626,16 @@
         <v>95</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E219" s="10">
+        <v>32</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5545,10 +5649,10 @@
         <v>224</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>202</v>
@@ -5565,10 +5669,10 @@
         <v>224</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>202</v>
@@ -5579,19 +5683,19 @@
         <v>93</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" s="10">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5599,19 +5703,19 @@
         <v>93</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E223" s="10">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5619,19 +5723,19 @@
         <v>93</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E224" s="10" t="s">
-        <v>9</v>
+      <c r="E224" s="10">
+        <v>31</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5639,19 +5743,19 @@
         <v>93</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="10" t="s">
-        <v>11</v>
+      <c r="E225" s="10">
+        <v>32</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5659,19 +5763,19 @@
         <v>93</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E226" s="12">
-        <v>31</v>
+      <c r="E226" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5679,19 +5783,19 @@
         <v>93</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="12">
-        <v>32</v>
+      <c r="E227" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5702,16 +5806,16 @@
         <v>98</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E228" s="12">
+        <v>31</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5722,16 +5826,16 @@
         <v>98</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E229" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E229" s="12">
+        <v>32</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,19 +5843,19 @@
         <v>93</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E230" s="12">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5759,59 +5863,59 @@
         <v>93</v>
       </c>
       <c r="B231" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B232" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E231" s="10">
+      <c r="C232" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" s="12">
+        <v>31</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="10">
         <v>32</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F233" s="7" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5819,7 +5923,7 @@
         <v>101</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>224</v>
@@ -5831,7 +5935,7 @@
         <v>9</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5839,7 +5943,7 @@
         <v>101</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>224</v>
@@ -5851,7 +5955,7 @@
         <v>11</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5865,13 +5969,13 @@
         <v>224</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5885,13 +5989,13 @@
         <v>224</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5899,19 +6003,19 @@
         <v>101</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E238" s="10">
-        <v>31</v>
+      <c r="E238" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5919,19 +6023,19 @@
         <v>101</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E239" s="10">
-        <v>32</v>
+      <c r="E239" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5939,19 +6043,19 @@
         <v>101</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E240" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E240" s="10">
+        <v>31</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5959,59 +6063,59 @@
         <v>101</v>
       </c>
       <c r="B241" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="10">
+        <v>32</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B242" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241" s="10" t="s">
+      <c r="C242" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F241" s="7" t="s">
+      <c r="F243" s="7" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E242" s="10">
-        <v>31</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E243" s="10">
-        <v>32</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6025,10 +6129,10 @@
         <v>225</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E244" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>213</v>
@@ -6045,10 +6149,10 @@
         <v>225</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E245" s="10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>213</v>
@@ -6059,19 +6163,19 @@
         <v>106</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E246" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6079,19 +6183,19 @@
         <v>106</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E247" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6099,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>225</v>
@@ -6111,7 +6215,7 @@
         <v>31</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6119,7 +6223,7 @@
         <v>106</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>225</v>
@@ -6131,7 +6235,7 @@
         <v>32</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6142,16 +6246,16 @@
         <v>108</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E250" s="10">
+        <v>31</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6162,16 +6266,16 @@
         <v>108</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E251" s="10">
+        <v>32</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6179,19 +6283,19 @@
         <v>106</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6199,19 +6303,19 @@
         <v>106</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6225,53 +6329,53 @@
         <v>224</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255" s="10">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E256" s="10">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,10 +6389,10 @@
         <v>225</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E257" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>218</v>
@@ -6305,10 +6409,10 @@
         <v>225</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E258" s="10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>218</v>
@@ -6319,19 +6423,19 @@
         <v>111</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E259" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6339,19 +6443,19 @@
         <v>111</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E260" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6359,7 +6463,7 @@
         <v>111</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>225</v>
@@ -6371,7 +6475,7 @@
         <v>31</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6379,7 +6483,7 @@
         <v>111</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>225</v>
@@ -6391,7 +6495,7 @@
         <v>32</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6503,7 @@
         <v>111</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>225</v>
@@ -6411,7 +6515,7 @@
         <v>31</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,7 +6523,7 @@
         <v>111</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>225</v>
@@ -6431,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6439,19 +6543,19 @@
         <v>111</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E265" s="10">
         <v>31</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6459,91 +6563,101 @@
         <v>111</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E266" s="10">
         <v>32</v>
       </c>
       <c r="F266" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="10">
+        <v>31</v>
+      </c>
+      <c r="F267" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C267" s="7">
-        <v>230</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
-        <v>261</v>
+    <row r="268" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C268" s="7">
-        <v>230</v>
+        <v>115</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>237</v>
+        <v>6</v>
+      </c>
+      <c r="E268" s="10">
+        <v>32</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C269" s="7">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E269" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="270" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C270" s="7">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E270" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C271" s="7">
         <v>132</v>
@@ -6551,16 +6665,17 @@
       <c r="D271" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E271" s="9">
-        <v>110</v>
+      <c r="E271" s="8"/>
+      <c r="F271" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C272" s="7">
         <v>132</v>
@@ -6568,11 +6683,12 @@
       <c r="D272" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E272" s="9">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="8"/>
+      <c r="F272" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>285</v>
       </c>
@@ -6583,13 +6699,16 @@
         <v>132</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="E273" s="9">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>285</v>
       </c>
@@ -6600,15 +6719,58 @@
         <v>132</v>
       </c>
       <c r="D274" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="9">
+        <v>210</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="7">
+        <v>132</v>
+      </c>
+      <c r="D275" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E275" s="9">
+        <v>310</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276" s="7">
+        <v>132</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E276" s="9">
         <v>410</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:F274" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
+  <autoFilter ref="A1:F276" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{0A6C8248-43F7-834A-BBA0-71FCA2E878F7}">

--- a/powerapp/data/dp_hvcb.xlsx
+++ b/powerapp/data/dp_hvcb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61086A6A-90EA-F240-9E06-0C63C0E7391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BD44E-23B4-4FE2-A124-3266B32F2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="920" windowWidth="19360" windowHeight="26380" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_hvcb_dp" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="302">
   <si>
     <t>feeder_id</t>
   </si>
@@ -915,6 +915,36 @@
   </si>
   <si>
     <t>ESTL</t>
+  </si>
+  <si>
+    <t>ssun_132</t>
+  </si>
+  <si>
+    <t>kbek_132</t>
+  </si>
+  <si>
+    <t>nsci_132</t>
+  </si>
+  <si>
+    <t>xnss_132</t>
+  </si>
+  <si>
+    <t>lkjg_132</t>
+  </si>
+  <si>
+    <t>ksni_132</t>
+  </si>
+  <si>
+    <t>utmj_132</t>
+  </si>
+  <si>
+    <t>kcmt_132</t>
+  </si>
+  <si>
+    <t>tpau_132</t>
+  </si>
+  <si>
+    <t>pltg_230</t>
   </si>
 </sst>
 </file>
@@ -924,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,11 +1377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}">
   <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -1362,7 +1392,7 @@
     <col min="7" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1382,7 +1412,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>226</v>
       </c>
@@ -1402,7 +1432,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>226</v>
       </c>
@@ -1422,7 +1452,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>228</v>
       </c>
@@ -1442,7 +1472,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>230</v>
       </c>
@@ -1462,7 +1492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>230</v>
       </c>
@@ -1482,7 +1512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -1502,7 +1532,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -1522,7 +1552,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>234</v>
       </c>
@@ -1542,7 +1572,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>234</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>238</v>
       </c>
@@ -1582,7 +1612,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -1602,7 +1632,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
@@ -1622,7 +1652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>240</v>
       </c>
@@ -1642,7 +1672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>242</v>
       </c>
@@ -1662,7 +1692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>246</v>
       </c>
@@ -1702,7 +1732,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
@@ -1722,7 +1752,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>248</v>
       </c>
@@ -1742,7 +1772,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>250</v>
       </c>
@@ -1762,7 +1792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>252</v>
       </c>
@@ -1782,7 +1812,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>252</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>256</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>257</v>
       </c>
@@ -1842,7 +1872,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>259</v>
       </c>
@@ -1862,7 +1892,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>259</v>
       </c>
@@ -1882,7 +1912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>290</v>
       </c>
@@ -1900,7 +1930,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>290</v>
       </c>
@@ -1918,7 +1948,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +2008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +2028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +2048,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -2138,7 +2168,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -2198,7 +2228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -2218,7 +2248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
@@ -2318,7 +2348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
@@ -2338,7 +2368,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2358,7 +2388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2428,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
@@ -2418,7 +2448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>27</v>
       </c>
@@ -2434,8 +2464,11 @@
       <c r="E54" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
         <v>27</v>
       </c>
@@ -2451,8 +2484,11 @@
       <c r="E55" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2508,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
         <v>30</v>
       </c>
@@ -2492,7 +2528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
         <v>30</v>
       </c>
@@ -2512,7 +2548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
         <v>30</v>
       </c>
@@ -2532,7 +2568,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
         <v>30</v>
       </c>
@@ -2572,7 +2608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
         <v>30</v>
       </c>
@@ -2592,7 +2628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
@@ -2612,7 +2648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
@@ -2632,7 +2668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
         <v>30</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2708,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +2728,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
         <v>30</v>
       </c>
@@ -2712,7 +2748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
         <v>30</v>
       </c>
@@ -2732,7 +2768,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
         <v>30</v>
       </c>
@@ -2752,7 +2788,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
         <v>30</v>
       </c>
@@ -2792,7 +2828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
         <v>39</v>
       </c>
@@ -2812,7 +2848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
         <v>39</v>
       </c>
@@ -2846,8 +2882,11 @@
         <v>8</v>
       </c>
       <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
         <v>39</v>
       </c>
@@ -2861,8 +2900,11 @@
         <v>10</v>
       </c>
       <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
         <v>39</v>
       </c>
@@ -2882,7 +2924,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
         <v>39</v>
       </c>
@@ -2902,7 +2944,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +2964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
         <v>39</v>
       </c>
@@ -2942,7 +2984,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
         <v>39</v>
       </c>
@@ -2962,7 +3004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
         <v>39</v>
       </c>
@@ -2982,7 +3024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
         <v>39</v>
       </c>
@@ -3002,7 +3044,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="14.5" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>39</v>
       </c>
@@ -3022,7 +3064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="14.5" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>39</v>
       </c>
@@ -3042,7 +3084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="14.5" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>39</v>
       </c>
@@ -3062,7 +3104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="14.5" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>39</v>
       </c>
@@ -3082,7 +3124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="14.5" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>39</v>
       </c>
@@ -3102,7 +3144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="14.5" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>39</v>
       </c>
@@ -3122,7 +3164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="14.5" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>39</v>
       </c>
@@ -3142,7 +3184,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="14.5" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>39</v>
       </c>
@@ -3162,7 +3204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="14.5" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>39</v>
       </c>
@@ -3182,7 +3224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="14.5" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>39</v>
       </c>
@@ -3202,7 +3244,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="14.5" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>39</v>
       </c>
@@ -3222,7 +3264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="14.5" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
@@ -3242,7 +3284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="14.5" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>39</v>
       </c>
@@ -3262,7 +3304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="14.5" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>39</v>
       </c>
@@ -3276,9 +3318,11 @@
         <v>8</v>
       </c>
       <c r="E97" s="11"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.5" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
@@ -3292,9 +3336,11 @@
         <v>10</v>
       </c>
       <c r="E98" s="11"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.5" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>39</v>
       </c>
@@ -3314,7 +3360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="14.5" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="14.5" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>39</v>
       </c>
@@ -3354,7 +3400,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="14.5" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3420,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="14.5" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -3394,7 +3440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="14.5" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>39</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="14.5" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>39</v>
       </c>
@@ -3434,7 +3480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="14.5" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="5" t="s">
         <v>39</v>
       </c>
@@ -3474,7 +3520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
         <v>39</v>
       </c>
@@ -3494,7 +3540,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
         <v>39</v>
       </c>
@@ -3514,7 +3560,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
         <v>39</v>
       </c>
@@ -3534,7 +3580,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
         <v>39</v>
       </c>
@@ -3554,7 +3600,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -3574,7 +3620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="5" t="s">
         <v>39</v>
       </c>
@@ -3594,7 +3640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
         <v>39</v>
       </c>
@@ -3614,7 +3660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="5" t="s">
         <v>39</v>
       </c>
@@ -3625,8 +3671,11 @@
         <v>132</v>
       </c>
       <c r="E115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="5" t="s">
         <v>39</v>
       </c>
@@ -3637,8 +3686,11 @@
         <v>132</v>
       </c>
       <c r="E116" s="10"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
         <v>39</v>
       </c>
@@ -3649,8 +3701,11 @@
         <v>132</v>
       </c>
       <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="5" t="s">
         <v>39</v>
       </c>
@@ -3661,8 +3716,11 @@
         <v>132</v>
       </c>
       <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +3740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="5" t="s">
         <v>55</v>
       </c>
@@ -3702,7 +3760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="5" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
         <v>55</v>
       </c>
@@ -3742,7 +3800,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +3820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="5" t="s">
         <v>55</v>
       </c>
@@ -3782,7 +3840,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
         <v>55</v>
       </c>
@@ -3802,7 +3860,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
         <v>55</v>
       </c>
@@ -3822,7 +3880,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
         <v>55</v>
       </c>
@@ -3842,7 +3900,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
         <v>59</v>
       </c>
@@ -3862,7 +3920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>59</v>
       </c>
@@ -3882,7 +3940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
         <v>59</v>
       </c>
@@ -3902,7 +3960,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
         <v>59</v>
       </c>
@@ -3942,7 +4000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="14.5" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>62</v>
       </c>
@@ -3962,7 +4020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="14.5" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>62</v>
       </c>
@@ -3982,7 +4040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="14.5" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>62</v>
       </c>
@@ -4000,7 +4058,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="14.5" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>62</v>
       </c>
@@ -4018,7 +4076,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="14.5" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>62</v>
       </c>
@@ -4036,7 +4094,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="14.5" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>62</v>
       </c>
@@ -4056,7 +4114,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="14.5" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>62</v>
       </c>
@@ -4076,7 +4134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="14.5" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>62</v>
       </c>
@@ -4096,7 +4154,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="14.5" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>62</v>
       </c>
@@ -4116,7 +4174,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="14.5" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>62</v>
       </c>
@@ -4136,7 +4194,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="14.5" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>62</v>
       </c>
@@ -4156,7 +4214,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="5" t="s">
         <v>62</v>
       </c>
@@ -4176,7 +4234,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="5" t="s">
         <v>62</v>
       </c>
@@ -4196,7 +4254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
@@ -4216,7 +4274,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="5" t="s">
         <v>62</v>
       </c>
@@ -4236,7 +4294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="5" t="s">
         <v>62</v>
       </c>
@@ -4256,7 +4314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="5" t="s">
         <v>62</v>
       </c>
@@ -4276,7 +4334,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="5" t="s">
         <v>62</v>
       </c>
@@ -4296,7 +4354,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="5" t="s">
         <v>62</v>
       </c>
@@ -4316,7 +4374,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="5" t="s">
         <v>62</v>
       </c>
@@ -4336,7 +4394,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="5" t="s">
         <v>62</v>
       </c>
@@ -4356,7 +4414,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="5" t="s">
         <v>62</v>
       </c>
@@ -4376,7 +4434,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="5" t="s">
         <v>62</v>
       </c>
@@ -4396,7 +4454,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="5" t="s">
         <v>62</v>
       </c>
@@ -4416,7 +4474,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="5" t="s">
         <v>62</v>
       </c>
@@ -4436,7 +4494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="5" t="s">
         <v>62</v>
       </c>
@@ -4456,7 +4514,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="5" t="s">
         <v>62</v>
       </c>
@@ -4476,7 +4534,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="6" customFormat="1">
       <c r="A160" s="5" t="s">
         <v>72</v>
       </c>
@@ -4496,7 +4554,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="6" customFormat="1">
       <c r="A161" s="5" t="s">
         <v>72</v>
       </c>
@@ -4516,7 +4574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" s="6" customFormat="1">
       <c r="A162" s="5" t="s">
         <v>72</v>
       </c>
@@ -4536,7 +4594,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" s="6" customFormat="1">
       <c r="A163" s="5" t="s">
         <v>72</v>
       </c>
@@ -4556,7 +4614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" s="6" customFormat="1">
       <c r="A164" s="5" t="s">
         <v>72</v>
       </c>
@@ -4576,7 +4634,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" s="6" customFormat="1">
       <c r="A165" s="5" t="s">
         <v>72</v>
       </c>
@@ -4596,7 +4654,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="6" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>72</v>
       </c>
@@ -4616,7 +4674,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" s="6" customFormat="1">
       <c r="A167" s="5" t="s">
         <v>72</v>
       </c>
@@ -4636,7 +4694,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" s="6" customFormat="1">
       <c r="A168" s="5" t="s">
         <v>72</v>
       </c>
@@ -4656,7 +4714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="6" customFormat="1">
       <c r="A169" s="5" t="s">
         <v>72</v>
       </c>
@@ -4676,7 +4734,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="6" customFormat="1">
       <c r="A170" s="5" t="s">
         <v>72</v>
       </c>
@@ -4696,7 +4754,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="6" customFormat="1">
       <c r="A171" s="5" t="s">
         <v>72</v>
       </c>
@@ -4716,7 +4774,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="6" customFormat="1">
       <c r="A172" s="5" t="s">
         <v>72</v>
       </c>
@@ -4736,7 +4794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="6" customFormat="1">
       <c r="A173" s="5" t="s">
         <v>72</v>
       </c>
@@ -4756,7 +4814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="6" customFormat="1">
       <c r="A174" s="5" t="s">
         <v>72</v>
       </c>
@@ -4776,7 +4834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="5" t="s">
         <v>77</v>
       </c>
@@ -4796,7 +4854,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="5" t="s">
         <v>77</v>
       </c>
@@ -4816,7 +4874,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="5" t="s">
         <v>77</v>
       </c>
@@ -4836,7 +4894,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="5" t="s">
         <v>77</v>
       </c>
@@ -4856,7 +4914,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="5" t="s">
         <v>77</v>
       </c>
@@ -4876,7 +4934,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="5" t="s">
         <v>77</v>
       </c>
@@ -4896,7 +4954,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="5" t="s">
         <v>77</v>
       </c>
@@ -4910,8 +4968,11 @@
         <v>2</v>
       </c>
       <c r="E181" s="10"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F181" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="5" t="s">
         <v>77</v>
       </c>
@@ -4925,8 +4986,11 @@
         <v>3</v>
       </c>
       <c r="E182" s="10"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F182" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="5" t="s">
         <v>77</v>
       </c>
@@ -4946,7 +5010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="5" t="s">
         <v>77</v>
       </c>
@@ -4966,7 +5030,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="5" t="s">
         <v>77</v>
       </c>
@@ -4986,7 +5050,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="5" t="s">
         <v>77</v>
       </c>
@@ -5006,7 +5070,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="5" t="s">
         <v>77</v>
       </c>
@@ -5026,7 +5090,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="5" t="s">
         <v>77</v>
       </c>
@@ -5046,7 +5110,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="5" t="s">
         <v>77</v>
       </c>
@@ -5060,8 +5124,11 @@
         <v>2</v>
       </c>
       <c r="E189" s="10"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F189" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="5" t="s">
         <v>77</v>
       </c>
@@ -5075,8 +5142,11 @@
         <v>3</v>
       </c>
       <c r="E190" s="10"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F190" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="5" t="s">
         <v>82</v>
       </c>
@@ -5096,7 +5166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="5" t="s">
         <v>82</v>
       </c>
@@ -5116,7 +5186,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="5" t="s">
         <v>82</v>
       </c>
@@ -5136,7 +5206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="5" t="s">
         <v>82</v>
       </c>
@@ -5156,7 +5226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="5" t="s">
         <v>85</v>
       </c>
@@ -5176,7 +5246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="5" t="s">
         <v>85</v>
       </c>
@@ -5196,7 +5266,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="5" t="s">
         <v>85</v>
       </c>
@@ -5216,7 +5286,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="5" t="s">
         <v>85</v>
       </c>
@@ -5236,7 +5306,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="5" t="s">
         <v>85</v>
       </c>
@@ -5256,7 +5326,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="5" t="s">
         <v>85</v>
       </c>
@@ -5276,7 +5346,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="5" t="s">
         <v>85</v>
       </c>
@@ -5290,8 +5360,11 @@
         <v>2</v>
       </c>
       <c r="E201" s="10"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="5" t="s">
         <v>85</v>
       </c>
@@ -5305,8 +5378,11 @@
         <v>3</v>
       </c>
       <c r="E202" s="10"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F202" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="5" t="s">
         <v>85</v>
       </c>
@@ -5317,8 +5393,11 @@
         <v>132</v>
       </c>
       <c r="E203" s="10"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F203" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="5" t="s">
         <v>88</v>
       </c>
@@ -5338,7 +5417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="5" t="s">
         <v>88</v>
       </c>
@@ -5358,7 +5437,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="5" t="s">
         <v>88</v>
       </c>
@@ -5378,7 +5457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="5" t="s">
         <v>88</v>
       </c>
@@ -5398,7 +5477,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="5" t="s">
         <v>88</v>
       </c>
@@ -5418,7 +5497,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="5" t="s">
         <v>88</v>
       </c>
@@ -5438,7 +5517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="5" t="s">
         <v>88</v>
       </c>
@@ -5458,7 +5537,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="5" t="s">
         <v>88</v>
       </c>
@@ -5478,7 +5557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="5" t="s">
         <v>93</v>
       </c>
@@ -5498,7 +5577,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="5" t="s">
         <v>93</v>
       </c>
@@ -5518,7 +5597,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="5" t="s">
         <v>93</v>
       </c>
@@ -5538,7 +5617,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="5" t="s">
         <v>93</v>
       </c>
@@ -5558,7 +5637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="5" t="s">
         <v>93</v>
       </c>
@@ -5578,7 +5657,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="5" t="s">
         <v>93</v>
       </c>
@@ -5598,7 +5677,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" s="5" t="s">
         <v>93</v>
       </c>
@@ -5618,7 +5697,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" s="5" t="s">
         <v>93</v>
       </c>
@@ -5638,7 +5717,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" s="5" t="s">
         <v>93</v>
       </c>
@@ -5658,7 +5737,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" s="5" t="s">
         <v>93</v>
       </c>
@@ -5678,7 +5757,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222" s="5" t="s">
         <v>93</v>
       </c>
@@ -5698,7 +5777,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223" s="5" t="s">
         <v>93</v>
       </c>
@@ -5718,7 +5797,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224" s="5" t="s">
         <v>93</v>
       </c>
@@ -5738,7 +5817,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="5" t="s">
         <v>93</v>
       </c>
@@ -5758,7 +5837,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="5" t="s">
         <v>93</v>
       </c>
@@ -5778,7 +5857,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="5" t="s">
         <v>93</v>
       </c>
@@ -5798,7 +5877,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="5" t="s">
         <v>93</v>
       </c>
@@ -5818,7 +5897,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="5" t="s">
         <v>93</v>
       </c>
@@ -5838,7 +5917,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230" s="5" t="s">
         <v>93</v>
       </c>
@@ -5858,7 +5937,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="5" t="s">
         <v>93</v>
       </c>
@@ -5878,7 +5957,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="5" t="s">
         <v>93</v>
       </c>
@@ -5898,7 +5977,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="5" t="s">
         <v>93</v>
       </c>
@@ -5918,7 +5997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="6" customFormat="1">
       <c r="A234" s="5" t="s">
         <v>101</v>
       </c>
@@ -5938,7 +6017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="6" customFormat="1">
       <c r="A235" s="5" t="s">
         <v>101</v>
       </c>
@@ -5958,7 +6037,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="6" customFormat="1">
       <c r="A236" s="5" t="s">
         <v>101</v>
       </c>
@@ -5978,7 +6057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="6" customFormat="1">
       <c r="A237" s="5" t="s">
         <v>101</v>
       </c>
@@ -5998,7 +6077,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="6" customFormat="1">
       <c r="A238" s="5" t="s">
         <v>101</v>
       </c>
@@ -6018,7 +6097,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="6" customFormat="1">
       <c r="A239" s="5" t="s">
         <v>101</v>
       </c>
@@ -6038,7 +6117,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="6" customFormat="1">
       <c r="A240" s="5" t="s">
         <v>101</v>
       </c>
@@ -6058,7 +6137,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="6" customFormat="1">
       <c r="A241" s="5" t="s">
         <v>101</v>
       </c>
@@ -6078,7 +6157,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="6" customFormat="1">
       <c r="A242" s="5" t="s">
         <v>101</v>
       </c>
@@ -6098,7 +6177,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="6" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>101</v>
       </c>
@@ -6118,7 +6197,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6">
       <c r="A244" s="5" t="s">
         <v>106</v>
       </c>
@@ -6138,7 +6217,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" s="5" t="s">
         <v>106</v>
       </c>
@@ -6158,7 +6237,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246" s="5" t="s">
         <v>106</v>
       </c>
@@ -6178,7 +6257,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247" s="5" t="s">
         <v>106</v>
       </c>
@@ -6198,7 +6277,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248" s="5" t="s">
         <v>106</v>
       </c>
@@ -6218,7 +6297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249" s="5" t="s">
         <v>106</v>
       </c>
@@ -6238,7 +6317,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250" s="5" t="s">
         <v>106</v>
       </c>
@@ -6258,7 +6337,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251" s="5" t="s">
         <v>106</v>
       </c>
@@ -6278,7 +6357,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252" s="5" t="s">
         <v>106</v>
       </c>
@@ -6298,7 +6377,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253" s="5" t="s">
         <v>106</v>
       </c>
@@ -6318,7 +6397,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254" s="5" t="s">
         <v>106</v>
       </c>
@@ -6338,7 +6417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255" s="5" t="s">
         <v>106</v>
       </c>
@@ -6358,7 +6437,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256" s="5" t="s">
         <v>106</v>
       </c>
@@ -6378,7 +6457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="14.5" customHeight="1">
       <c r="A257" s="5" t="s">
         <v>111</v>
       </c>
@@ -6398,7 +6477,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="14.5" customHeight="1">
       <c r="A258" s="5" t="s">
         <v>111</v>
       </c>
@@ -6418,7 +6497,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="14.5" customHeight="1">
       <c r="A259" s="5" t="s">
         <v>111</v>
       </c>
@@ -6438,7 +6517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="14.5" customHeight="1">
       <c r="A260" s="5" t="s">
         <v>111</v>
       </c>
@@ -6458,7 +6537,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="14.5" customHeight="1">
       <c r="A261" s="5" t="s">
         <v>111</v>
       </c>
@@ -6478,7 +6557,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="14.5" customHeight="1">
       <c r="A262" s="5" t="s">
         <v>111</v>
       </c>
@@ -6498,7 +6577,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="14.5" customHeight="1">
       <c r="A263" s="5" t="s">
         <v>111</v>
       </c>
@@ -6518,7 +6597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="14.5" customHeight="1">
       <c r="A264" s="5" t="s">
         <v>111</v>
       </c>
@@ -6538,7 +6617,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="14.5" customHeight="1">
       <c r="A265" s="5" t="s">
         <v>111</v>
       </c>
@@ -6558,7 +6637,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="14.5" customHeight="1">
       <c r="A266" s="5" t="s">
         <v>111</v>
       </c>
@@ -6578,7 +6657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="14.5" customHeight="1">
       <c r="A267" s="5" t="s">
         <v>111</v>
       </c>
@@ -6598,7 +6677,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="14.5" customHeight="1">
       <c r="A268" s="5" t="s">
         <v>111</v>
       </c>
@@ -6618,7 +6697,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" s="3" customFormat="1">
       <c r="A269" s="3" t="s">
         <v>261</v>
       </c>
@@ -6634,8 +6713,11 @@
       <c r="E269" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F269" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="3" customFormat="1">
       <c r="A270" s="3" t="s">
         <v>261</v>
       </c>
@@ -6651,8 +6733,11 @@
       <c r="E270" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F270" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="3" customFormat="1">
       <c r="A271" s="3" t="s">
         <v>265</v>
       </c>
@@ -6670,7 +6755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" s="3" customFormat="1">
       <c r="A272" s="3" t="s">
         <v>265</v>
       </c>
@@ -6688,7 +6773,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" s="3" customFormat="1">
       <c r="A273" s="3" t="s">
         <v>285</v>
       </c>
@@ -6708,7 +6793,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" s="3" customFormat="1">
       <c r="A274" s="3" t="s">
         <v>285</v>
       </c>
@@ -6728,7 +6813,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" s="3" customFormat="1">
       <c r="A275" s="3" t="s">
         <v>285</v>
       </c>
@@ -6748,7 +6833,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" s="3" customFormat="1">
       <c r="A276" s="3" t="s">
         <v>285</v>
       </c>

--- a/powerapp/data/dp_hvcb.xlsx
+++ b/powerapp/data/dp_hvcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BD44E-23B4-4FE2-A124-3266B32F2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619BA88-ED03-4DCC-9AFA-949288CA23BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="336">
   <si>
     <t>feeder_id</t>
   </si>
@@ -945,6 +945,108 @@
   </si>
   <si>
     <t>pltg_230</t>
+  </si>
+  <si>
+    <t>pklg_kgjh</t>
+  </si>
+  <si>
+    <t>KSGR</t>
+  </si>
+  <si>
+    <t>SBSR</t>
+  </si>
+  <si>
+    <t>HMLG</t>
+  </si>
+  <si>
+    <t>TINE</t>
+  </si>
+  <si>
+    <t>SMNK</t>
+  </si>
+  <si>
+    <t>TINT</t>
+  </si>
+  <si>
+    <t>ksgr_33</t>
+  </si>
+  <si>
+    <t>sbsr_11</t>
+  </si>
+  <si>
+    <t>sbsr_33</t>
+  </si>
+  <si>
+    <t>hmlg_33</t>
+  </si>
+  <si>
+    <t>tine_33</t>
+  </si>
+  <si>
+    <t>tint_11</t>
+  </si>
+  <si>
+    <t>hcom_kkmg</t>
+  </si>
+  <si>
+    <t>KKMG</t>
+  </si>
+  <si>
+    <t>kkmg_11</t>
+  </si>
+  <si>
+    <t>kkmg_33</t>
+  </si>
+  <si>
+    <t>brgs_mhta</t>
+  </si>
+  <si>
+    <t>MHTA</t>
+  </si>
+  <si>
+    <t>mhta_11</t>
+  </si>
+  <si>
+    <t>mhta_33</t>
+  </si>
+  <si>
+    <t>ppth_sjth</t>
+  </si>
+  <si>
+    <t>ktgu_gbdk</t>
+  </si>
+  <si>
+    <t>HXTD</t>
+  </si>
+  <si>
+    <t>htss_htxd_132</t>
+  </si>
+  <si>
+    <t>bktr_cima_132</t>
+  </si>
+  <si>
+    <t>CIMA</t>
+  </si>
+  <si>
+    <t>pmjy_kptr</t>
+  </si>
+  <si>
+    <t>KPTR</t>
+  </si>
+  <si>
+    <t>132/22</t>
+  </si>
+  <si>
+    <t>ptai_kulw_kuls_fscl</t>
+  </si>
+  <si>
+    <t>ICNC</t>
+  </si>
+  <si>
+    <t>NSPK</t>
+  </si>
+  <si>
+    <t>TJYA</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L321" sqref="L321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
@@ -6853,6 +6955,766 @@
         <v>285</v>
       </c>
     </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="8">
+        <v>31</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" s="8">
+        <v>32</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C287" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="8">
+        <v>31</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" s="8">
+        <v>32</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" s="8">
+        <v>33</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" s="8">
+        <v>31</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292" s="8">
+        <v>32</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="8">
+        <v>31</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296" s="8">
+        <v>32</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="8">
+        <v>31</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303" s="8">
+        <v>32</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C309" s="3">
+        <v>132</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E309" s="8">
+        <v>105</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C310" s="3">
+        <v>132</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C311" s="3">
+        <v>132</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C312" s="3">
+        <v>132</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="B316" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="B317" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <autoFilter ref="A1:F276" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
